--- a/Test-cases.xlsx
+++ b/Test-cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasylek/Desktop/Proj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasylek/Desktop/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DA7329-C05D-9047-B59E-9ED991DC6632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA216DD2-2696-774D-A996-EFE5B5583A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{85A87961-37EC-3F4B-B441-C1B360CC8719}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -56,12 +56,6 @@
     <t>A2</t>
   </si>
   <si>
-    <t>Regisration with valid data</t>
-  </si>
-  <si>
-    <t>Open the site https://www.redmine.org/</t>
-  </si>
-  <si>
     <t>1. Click the button 'Регистрация'</t>
   </si>
   <si>
@@ -89,39 +83,15 @@
     <t>9. Click the button 'Принять'</t>
   </si>
   <si>
-    <t xml:space="preserve">Account successfully created </t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>Regisration with empty field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sign in </t>
-  </si>
-  <si>
     <t>1. Click the button 'Войти'</t>
   </si>
   <si>
-    <t>4. Choose 'Оставаться в системе'</t>
-  </si>
-  <si>
-    <t>5. Click the button 'Вход'</t>
-  </si>
-  <si>
-    <t>Open the site https://www.redmine.org/. Have a created account on the site</t>
-  </si>
-  <si>
-    <t>The user was switched to the personal account</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>Using search filters</t>
-  </si>
-  <si>
     <t>1. Fill the field 'Search'</t>
   </si>
   <si>
@@ -137,18 +107,12 @@
     <t>5. Click the button 'Принять'</t>
   </si>
   <si>
-    <t>The user will be shown only those materials that fit the filters</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
     <t>7. Click the button 'Принять'</t>
   </si>
   <si>
-    <t xml:space="preserve">Password Recovery </t>
-  </si>
-  <si>
     <t>2. Click on the button 'Восстановление пароля'</t>
   </si>
   <si>
@@ -158,10 +122,85 @@
     <t>4. Click on the button 'Принять'</t>
   </si>
   <si>
-    <t>Error message 'Email can't be blank'</t>
-  </si>
-  <si>
-    <t>The instructions will be sent to the specified mail</t>
+    <t>Check the registration of a new user with valid data</t>
+  </si>
+  <si>
+    <t>Checking that it is not possible to register a new user without entering an email</t>
+  </si>
+  <si>
+    <t>Check the sign in of an existing user</t>
+  </si>
+  <si>
+    <t>Check  the ability to use search filters</t>
+  </si>
+  <si>
+    <t>Check the ability to recover password</t>
+  </si>
+  <si>
+    <t>The site https://www.redmine.org/ must be open</t>
+  </si>
+  <si>
+    <t>The site https://www.redmine.org/ must be open. The tester has an account on the site</t>
+  </si>
+  <si>
+    <t>The registation process should be finished successfuly, the corresponding information message should be displayed to the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The registation process shouldn't be finished successfuly, the corresponding information message 'Email can't be blank' should be displayed to the user </t>
+  </si>
+  <si>
+    <t>The user should be switched to the personal account</t>
+  </si>
+  <si>
+    <t>The user should be shown only those materials that fit the filters</t>
+  </si>
+  <si>
+    <t>The instructions should be sent to the specified mail</t>
+  </si>
+  <si>
+    <t>The user should be switched to the registration page</t>
+  </si>
+  <si>
+    <t>The selected language should be changed to Ukrainian</t>
+  </si>
+  <si>
+    <t>The user should be switched to the Sign in page</t>
+  </si>
+  <si>
+    <t>4. Click the button 'Вход'</t>
+  </si>
+  <si>
+    <t>The user should be switched to the page with search results</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Checkbox 'Задачи' should be chosen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Checkbox 'Сообщения' should be chosen</t>
+  </si>
+  <si>
+    <t>The field 'Пользователь' should be filled</t>
+  </si>
+  <si>
+    <t>The field 'Пароль' should be filled</t>
+  </si>
+  <si>
+    <t>The field 'Подтверждение' should be filled</t>
+  </si>
+  <si>
+    <t>The field 'Имя' should be filled</t>
+  </si>
+  <si>
+    <t>The field 'Фамилия' should be filled</t>
+  </si>
+  <si>
+    <t>The field 'Email' should be filled</t>
+  </si>
+  <si>
+    <t>The field 'Search' should be filled</t>
+  </si>
+  <si>
+    <t>The user should be switched to the Password recovery page</t>
   </si>
 </sst>
 </file>
@@ -214,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -263,48 +302,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -621,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ED189F-5A46-504D-B12C-5C76233D7240}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B29" sqref="B29:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,367 +713,419 @@
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6" t="s">
+      <c r="B24" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="E29" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="E30" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="C33" s="8"/>
+      <c r="E33" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E29:E32"/>
+  <mergeCells count="18">
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="A29:A32"/>
     <mergeCell ref="B29:B32"/>
-    <mergeCell ref="E19:E23"/>
     <mergeCell ref="C24:C28"/>
-    <mergeCell ref="E24:E28"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A28"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B11:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C11:C18"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="E11:E18"/>
-    <mergeCell ref="B11:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
